--- a/pic/DoubleToFloat/excel.xlsx
+++ b/pic/DoubleToFloat/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyBox\Github\GitDisk\pic\DoubleToFloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7998511-33B4-42F8-A1F0-19F19674A11D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797867D-AD7D-4A93-B1E2-68B98C97BEFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{98EAEB47-A79D-46CA-BACF-5A8B265385E2}"/>
   </bookViews>
@@ -57,13 +57,13 @@
     <t>将0010的放入22到0位</t>
   </si>
   <si>
-    <t>9.0是正数,所以第31位是1</t>
-  </si>
-  <si>
     <t>n是左移得到的,所以第30位为1</t>
   </si>
   <si>
     <t>n是左移得到的,减去1后为2,转化成二进制位10,其左边补足7位,位0000010,放入到29到23位</t>
+  </si>
+  <si>
+    <t>9.0是正数,所以第31位是0</t>
   </si>
 </sst>
 </file>
@@ -810,7 +810,7 @@
   <dimension ref="A3:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21"/>
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>

--- a/pic/DoubleToFloat/excel.xlsx
+++ b/pic/DoubleToFloat/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyBox\Github\GitDisk\pic\DoubleToFloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797867D-AD7D-4A93-B1E2-68B98C97BEFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF096004-6C8C-468A-AF06-29DD6098A129}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{98EAEB47-A79D-46CA-BACF-5A8B265385E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>Step</t>
   </si>
@@ -65,15 +65,55 @@
   <si>
     <t>9.0是正数,所以第31位是0</t>
   </si>
+  <si>
+    <t>83459338的于二进制的100111110010111110100001010</t>
+  </si>
+  <si>
+    <t>100111110010111110100001010 的小数点左移26位后是1.00111110010111110100001010 所以n为26</t>
+  </si>
+  <si>
+    <t>将00111110010111110100001010的放入22到0位</t>
+  </si>
+  <si>
+    <t>00111110010111110100001010一共有26位,但是有效数字为只能存储23位,所以最终将后三位舍去</t>
+  </si>
+  <si>
+    <t>☝</t>
+  </si>
+  <si>
+    <t>83459338是正数,所以第31位是0</t>
+  </si>
+  <si>
+    <t>83459338是左移得到的,所以第30位为1</t>
+  </si>
+  <si>
+    <t>n(26)是左移得到的,减去1后为25,转化成二进制位并补足七位0011001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -130,6 +170,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,10 +853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF77224D-9AC8-48C2-98E3-EA55DC83EE4C}">
-  <dimension ref="A3:AF25"/>
+  <dimension ref="A3:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AN47" sqref="AN47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,8 +2008,1301 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF39" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2">
+        <v>30</v>
+      </c>
+      <c r="C41" s="2">
+        <v>29</v>
+      </c>
+      <c r="D41" s="2">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2">
+        <v>27</v>
+      </c>
+      <c r="F41" s="2">
+        <v>26</v>
+      </c>
+      <c r="G41" s="2">
+        <v>25</v>
+      </c>
+      <c r="H41" s="2">
+        <v>24</v>
+      </c>
+      <c r="I41" s="2">
+        <v>23</v>
+      </c>
+      <c r="J41" s="3">
+        <v>22</v>
+      </c>
+      <c r="K41" s="3">
+        <v>21</v>
+      </c>
+      <c r="L41" s="3">
+        <v>20</v>
+      </c>
+      <c r="M41" s="3">
+        <v>19</v>
+      </c>
+      <c r="N41" s="3">
+        <v>18</v>
+      </c>
+      <c r="O41" s="3">
+        <v>17</v>
+      </c>
+      <c r="P41" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>15</v>
+      </c>
+      <c r="R41" s="3">
+        <v>14</v>
+      </c>
+      <c r="S41" s="3">
+        <v>13</v>
+      </c>
+      <c r="T41" s="3">
+        <v>12</v>
+      </c>
+      <c r="U41" s="3">
+        <v>11</v>
+      </c>
+      <c r="V41" s="3">
+        <v>10</v>
+      </c>
+      <c r="W41" s="3">
+        <v>9</v>
+      </c>
+      <c r="X41" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>31</v>
+      </c>
+      <c r="B46" s="2">
+        <v>30</v>
+      </c>
+      <c r="C46" s="2">
+        <v>29</v>
+      </c>
+      <c r="D46" s="2">
+        <v>28</v>
+      </c>
+      <c r="E46" s="2">
+        <v>27</v>
+      </c>
+      <c r="F46" s="2">
+        <v>26</v>
+      </c>
+      <c r="G46" s="2">
+        <v>25</v>
+      </c>
+      <c r="H46" s="2">
+        <v>24</v>
+      </c>
+      <c r="I46" s="2">
+        <v>23</v>
+      </c>
+      <c r="J46" s="3">
+        <v>22</v>
+      </c>
+      <c r="K46" s="3">
+        <v>21</v>
+      </c>
+      <c r="L46" s="3">
+        <v>20</v>
+      </c>
+      <c r="M46" s="3">
+        <v>19</v>
+      </c>
+      <c r="N46" s="3">
+        <v>18</v>
+      </c>
+      <c r="O46" s="3">
+        <v>17</v>
+      </c>
+      <c r="P46" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>15</v>
+      </c>
+      <c r="R46" s="3">
+        <v>14</v>
+      </c>
+      <c r="S46" s="3">
+        <v>13</v>
+      </c>
+      <c r="T46" s="3">
+        <v>12</v>
+      </c>
+      <c r="U46" s="3">
+        <v>11</v>
+      </c>
+      <c r="V46" s="3">
+        <v>10</v>
+      </c>
+      <c r="W46" s="3">
+        <v>9</v>
+      </c>
+      <c r="X46" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>31</v>
+      </c>
+      <c r="B51" s="2">
+        <v>30</v>
+      </c>
+      <c r="C51" s="2">
+        <v>29</v>
+      </c>
+      <c r="D51" s="2">
+        <v>28</v>
+      </c>
+      <c r="E51" s="2">
+        <v>27</v>
+      </c>
+      <c r="F51" s="2">
+        <v>26</v>
+      </c>
+      <c r="G51" s="2">
+        <v>25</v>
+      </c>
+      <c r="H51" s="2">
+        <v>24</v>
+      </c>
+      <c r="I51" s="2">
+        <v>23</v>
+      </c>
+      <c r="J51" s="3">
+        <v>22</v>
+      </c>
+      <c r="K51" s="3">
+        <v>21</v>
+      </c>
+      <c r="L51" s="3">
+        <v>20</v>
+      </c>
+      <c r="M51" s="3">
+        <v>19</v>
+      </c>
+      <c r="N51" s="3">
+        <v>18</v>
+      </c>
+      <c r="O51" s="3">
+        <v>17</v>
+      </c>
+      <c r="P51" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>15</v>
+      </c>
+      <c r="R51" s="3">
+        <v>14</v>
+      </c>
+      <c r="S51" s="3">
+        <v>13</v>
+      </c>
+      <c r="T51" s="3">
+        <v>12</v>
+      </c>
+      <c r="U51" s="3">
+        <v>11</v>
+      </c>
+      <c r="V51" s="3">
+        <v>10</v>
+      </c>
+      <c r="W51" s="3">
+        <v>9</v>
+      </c>
+      <c r="X51" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>31</v>
+      </c>
+      <c r="B56" s="2">
+        <v>30</v>
+      </c>
+      <c r="C56" s="2">
+        <v>29</v>
+      </c>
+      <c r="D56" s="2">
+        <v>28</v>
+      </c>
+      <c r="E56" s="2">
+        <v>27</v>
+      </c>
+      <c r="F56" s="2">
+        <v>26</v>
+      </c>
+      <c r="G56" s="2">
+        <v>25</v>
+      </c>
+      <c r="H56" s="2">
+        <v>24</v>
+      </c>
+      <c r="I56" s="2">
+        <v>23</v>
+      </c>
+      <c r="J56" s="3">
+        <v>22</v>
+      </c>
+      <c r="K56" s="3">
+        <v>21</v>
+      </c>
+      <c r="L56" s="3">
+        <v>20</v>
+      </c>
+      <c r="M56" s="3">
+        <v>19</v>
+      </c>
+      <c r="N56" s="3">
+        <v>18</v>
+      </c>
+      <c r="O56" s="3">
+        <v>17</v>
+      </c>
+      <c r="P56" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>15</v>
+      </c>
+      <c r="R56" s="3">
+        <v>14</v>
+      </c>
+      <c r="S56" s="3">
+        <v>13</v>
+      </c>
+      <c r="T56" s="3">
+        <v>12</v>
+      </c>
+      <c r="U56" s="3">
+        <v>11</v>
+      </c>
+      <c r="V56" s="3">
+        <v>10</v>
+      </c>
+      <c r="W56" s="3">
+        <v>9</v>
+      </c>
+      <c r="X56" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="29">
+    <mergeCell ref="A54:AF54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="J55:AF55"/>
+    <mergeCell ref="A38:AF38"/>
+    <mergeCell ref="A44:AF44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="J45:AF45"/>
+    <mergeCell ref="A49:AF49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="J50:AF50"/>
+    <mergeCell ref="A33:AF33"/>
+    <mergeCell ref="A35:AF35"/>
+    <mergeCell ref="A37:AF37"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="J40:AF40"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="J23:AF23"/>
     <mergeCell ref="A3:AF3"/>
